--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Efnb1-Ephb1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Efnb1-Ephb1.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>10.52163533333333</v>
+        <v>6.488422666666668</v>
       </c>
       <c r="H2">
-        <v>31.564906</v>
+        <v>19.465268</v>
       </c>
       <c r="I2">
-        <v>0.4782136086181363</v>
+        <v>0.3444204430827928</v>
       </c>
       <c r="J2">
-        <v>0.4973545982298819</v>
+        <v>0.361825925629615</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.875567333333333</v>
+        <v>1.684496</v>
       </c>
       <c r="N2">
-        <v>5.626702</v>
+        <v>5.053488</v>
       </c>
       <c r="O2">
-        <v>0.9147184316015461</v>
+        <v>0.6423607101334534</v>
       </c>
       <c r="P2">
-        <v>0.9397527619538806</v>
+        <v>0.7282461611889918</v>
       </c>
       <c r="Q2">
-        <v>19.73403552444578</v>
+        <v>10.92972202830934</v>
       </c>
       <c r="R2">
-        <v>177.606319720012</v>
+        <v>98.36749825478401</v>
       </c>
       <c r="S2">
-        <v>0.4374308020456972</v>
+        <v>0.2212421604031415</v>
       </c>
       <c r="T2">
-        <v>0.4673903573569941</v>
+        <v>0.2634983413584207</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>10.52163533333333</v>
+        <v>6.488422666666668</v>
       </c>
       <c r="H3">
-        <v>31.564906</v>
+        <v>19.465268</v>
       </c>
       <c r="I3">
-        <v>0.4782136086181363</v>
+        <v>0.3444204430827928</v>
       </c>
       <c r="J3">
-        <v>0.4973545982298819</v>
+        <v>0.361825925629615</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -620,28 +620,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.163866</v>
+        <v>0.9277985</v>
       </c>
       <c r="N3">
-        <v>0.327732</v>
+        <v>1.855597</v>
       </c>
       <c r="O3">
-        <v>0.07991781891745056</v>
+        <v>0.3538039290807178</v>
       </c>
       <c r="P3">
-        <v>0.05473669161449624</v>
+        <v>0.2674056793968462</v>
       </c>
       <c r="Q3">
-        <v>1.724138295532</v>
+        <v>6.019948817499334</v>
       </c>
       <c r="R3">
-        <v>10.344829773192</v>
+        <v>36.119692904996</v>
       </c>
       <c r="S3">
-        <v>0.03821778857740479</v>
+        <v>0.1218573060184139</v>
       </c>
       <c r="T3">
-        <v>0.02722354526636073</v>
+        <v>0.09675430746637995</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>10.52163533333333</v>
+        <v>6.488422666666668</v>
       </c>
       <c r="H4">
-        <v>31.564906</v>
+        <v>19.465268</v>
       </c>
       <c r="I4">
-        <v>0.4782136086181363</v>
+        <v>0.3444204430827928</v>
       </c>
       <c r="J4">
-        <v>0.4973545982298819</v>
+        <v>0.361825925629615</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -682,28 +682,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.010998</v>
+        <v>0.01005766666666667</v>
       </c>
       <c r="N4">
-        <v>0.032994</v>
+        <v>0.030173</v>
       </c>
       <c r="O4">
-        <v>0.005363749481003511</v>
+        <v>0.003835360785828855</v>
       </c>
       <c r="P4">
-        <v>0.005510546431623061</v>
+        <v>0.004348159414162149</v>
       </c>
       <c r="Q4">
-        <v>0.115716945396</v>
+        <v>0.06525839237377778</v>
       </c>
       <c r="R4">
-        <v>1.041452508564</v>
+        <v>0.587325531364</v>
       </c>
       <c r="S4">
-        <v>0.002565017995034345</v>
+        <v>0.001320976661237543</v>
       </c>
       <c r="T4">
-        <v>0.002740695606526997</v>
+        <v>0.001573276804814344</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -732,10 +732,10 @@
         <v>25.529465</v>
       </c>
       <c r="I5">
-        <v>0.3867756673737729</v>
+        <v>0.4517209651039303</v>
       </c>
       <c r="J5">
-        <v>0.4022567597096229</v>
+        <v>0.4745489404232121</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.875567333333333</v>
+        <v>1.684496</v>
       </c>
       <c r="N5">
-        <v>5.626702</v>
+        <v>5.053488</v>
       </c>
       <c r="O5">
-        <v>0.9147184316015461</v>
+        <v>0.6423607101334534</v>
       </c>
       <c r="P5">
-        <v>0.9397527619538806</v>
+        <v>0.7282461611889918</v>
       </c>
       <c r="Q5">
-        <v>15.96074353049222</v>
+        <v>14.33476055821333</v>
       </c>
       <c r="R5">
-        <v>143.64669177443</v>
+        <v>129.01284502392</v>
       </c>
       <c r="S5">
-        <v>0.3537908318417788</v>
+        <v>0.2901677999263296</v>
       </c>
       <c r="T5">
-        <v>0.3780219009517365</v>
+        <v>0.3455884441595078</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -794,10 +794,10 @@
         <v>25.529465</v>
       </c>
       <c r="I6">
-        <v>0.3867756673737729</v>
+        <v>0.4517209651039303</v>
       </c>
       <c r="J6">
-        <v>0.4022567597096229</v>
+        <v>0.4745489404232121</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.163866</v>
+        <v>0.9277985</v>
       </c>
       <c r="N6">
-        <v>0.327732</v>
+        <v>1.855597</v>
       </c>
       <c r="O6">
-        <v>0.07991781891745056</v>
+        <v>0.3538039290807178</v>
       </c>
       <c r="P6">
-        <v>0.05473669161449624</v>
+        <v>0.2674056793968462</v>
       </c>
       <c r="Q6">
-        <v>1.39447043723</v>
+        <v>7.895399777600834</v>
       </c>
       <c r="R6">
-        <v>8.366822623380001</v>
+        <v>47.372398665605</v>
       </c>
       <c r="S6">
-        <v>0.03091026774685327</v>
+        <v>0.1598206523019044</v>
       </c>
       <c r="T6">
-        <v>0.02201820420607215</v>
+        <v>0.1268970818209225</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>25.529465</v>
       </c>
       <c r="I7">
-        <v>0.3867756673737729</v>
+        <v>0.4517209651039303</v>
       </c>
       <c r="J7">
-        <v>0.4022567597096229</v>
+        <v>0.4745489404232121</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -868,28 +868,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>0.010998</v>
+        <v>0.01005766666666667</v>
       </c>
       <c r="N7">
-        <v>0.032994</v>
+        <v>0.030173</v>
       </c>
       <c r="O7">
-        <v>0.005363749481003511</v>
+        <v>0.003835360785828855</v>
       </c>
       <c r="P7">
-        <v>0.005510546431623061</v>
+        <v>0.004348159414162149</v>
       </c>
       <c r="Q7">
-        <v>0.09359101869000001</v>
+        <v>0.08558894971611111</v>
       </c>
       <c r="R7">
-        <v>0.8423191682100001</v>
+        <v>0.770300547445</v>
       </c>
       <c r="S7">
-        <v>0.002074567785140861</v>
+        <v>0.001732512875696379</v>
       </c>
       <c r="T7">
-        <v>0.002216654551814118</v>
+        <v>0.002063414442781862</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,22 +906,22 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>0.1148996666666667</v>
+        <v>0.331724</v>
       </c>
       <c r="H8">
-        <v>0.344699</v>
+        <v>0.9951719999999999</v>
       </c>
       <c r="I8">
-        <v>0.005222247538993557</v>
+        <v>0.01760867516355742</v>
       </c>
       <c r="J8">
-        <v>0.005431273346901209</v>
+        <v>0.0184985395557192</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -930,28 +930,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.875567333333333</v>
+        <v>1.684496</v>
       </c>
       <c r="N8">
-        <v>5.626702</v>
+        <v>5.053488</v>
       </c>
       <c r="O8">
-        <v>0.9147184316015461</v>
+        <v>0.6423607101334534</v>
       </c>
       <c r="P8">
-        <v>0.9397527619538806</v>
+        <v>0.7282461611889918</v>
       </c>
       <c r="Q8">
-        <v>0.2155020614108889</v>
+        <v>0.5587877511039999</v>
       </c>
       <c r="R8">
-        <v>1.939518552698</v>
+        <v>5.029089759935999</v>
       </c>
       <c r="S8">
-        <v>0.00477688607830322</v>
+        <v>0.01131112108257205</v>
       </c>
       <c r="T8">
-        <v>0.005104054128676909</v>
+        <v>0.01347149041905522</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,22 +968,22 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>0.1148996666666667</v>
+        <v>0.331724</v>
       </c>
       <c r="H9">
-        <v>0.344699</v>
+        <v>0.9951719999999999</v>
       </c>
       <c r="I9">
-        <v>0.005222247538993557</v>
+        <v>0.01760867516355742</v>
       </c>
       <c r="J9">
-        <v>0.005431273346901209</v>
+        <v>0.0184985395557192</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.163866</v>
+        <v>0.9277985</v>
       </c>
       <c r="N9">
-        <v>0.327732</v>
+        <v>1.855597</v>
       </c>
       <c r="O9">
-        <v>0.07991781891745056</v>
+        <v>0.3538039290807178</v>
       </c>
       <c r="P9">
-        <v>0.05473669161449624</v>
+        <v>0.2674056793968462</v>
       </c>
       <c r="Q9">
-        <v>0.018828148778</v>
+        <v>0.3077730296139999</v>
       </c>
       <c r="R9">
-        <v>0.112968892668</v>
+        <v>1.846638177684</v>
       </c>
       <c r="S9">
-        <v>0.0004173506331633889</v>
+        <v>0.006230018458772666</v>
       </c>
       <c r="T9">
-        <v>0.0002972899342633644</v>
+        <v>0.004946614537746526</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,22 +1030,22 @@
         <v>24</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.1148996666666667</v>
+        <v>0.331724</v>
       </c>
       <c r="H10">
-        <v>0.344699</v>
+        <v>0.9951719999999999</v>
       </c>
       <c r="I10">
-        <v>0.005222247538993557</v>
+        <v>0.01760867516355742</v>
       </c>
       <c r="J10">
-        <v>0.005431273346901209</v>
+        <v>0.0184985395557192</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -1054,28 +1054,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>0.010998</v>
+        <v>0.01005766666666667</v>
       </c>
       <c r="N10">
-        <v>0.032994</v>
+        <v>0.030173</v>
       </c>
       <c r="O10">
-        <v>0.005363749481003511</v>
+        <v>0.003835360785828855</v>
       </c>
       <c r="P10">
-        <v>0.005510546431623061</v>
+        <v>0.004348159414162149</v>
       </c>
       <c r="Q10">
-        <v>0.001263666534</v>
+        <v>0.003336369417333333</v>
       </c>
       <c r="R10">
-        <v>0.011372998806</v>
+        <v>0.030027324756</v>
       </c>
       <c r="S10">
-        <v>2.801082752694855E-05</v>
+        <v>6.753562221270662E-05</v>
       </c>
       <c r="T10">
-        <v>2.99292839609359E-05</v>
+        <v>8.043459891745133E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1098,16 +1098,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2.5402755</v>
+        <v>2.7186785</v>
       </c>
       <c r="H11">
-        <v>5.080551</v>
+        <v>5.437357</v>
       </c>
       <c r="I11">
-        <v>0.1154567969002575</v>
+        <v>0.1443137264130649</v>
       </c>
       <c r="J11">
-        <v>0.08005204898729699</v>
+        <v>0.1010711349827635</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.875567333333333</v>
+        <v>1.684496</v>
       </c>
       <c r="N11">
-        <v>5.626702</v>
+        <v>5.053488</v>
       </c>
       <c r="O11">
-        <v>0.9147184316015461</v>
+        <v>0.6423607101334534</v>
       </c>
       <c r="P11">
-        <v>0.9397527619538806</v>
+        <v>0.7282461611889918</v>
       </c>
       <c r="Q11">
-        <v>4.764457745467</v>
+        <v>4.579603058536001</v>
       </c>
       <c r="R11">
-        <v>28.586746472802</v>
+        <v>27.477618351216</v>
       </c>
       <c r="S11">
-        <v>0.1056104601783418</v>
+        <v>0.09270146778070129</v>
       </c>
       <c r="T11">
-        <v>0.0752291341358797</v>
+        <v>0.07360466605821191</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.5402755</v>
+        <v>2.7186785</v>
       </c>
       <c r="H12">
-        <v>5.080551</v>
+        <v>5.437357</v>
       </c>
       <c r="I12">
-        <v>0.1154567969002575</v>
+        <v>0.1443137264130649</v>
       </c>
       <c r="J12">
-        <v>0.08005204898729699</v>
+        <v>0.1010711349827635</v>
       </c>
       <c r="K12">
         <v>2</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.163866</v>
+        <v>0.9277985</v>
       </c>
       <c r="N12">
-        <v>0.327732</v>
+        <v>1.855597</v>
       </c>
       <c r="O12">
-        <v>0.07991781891745056</v>
+        <v>0.3538039290807178</v>
       </c>
       <c r="P12">
-        <v>0.05473669161449624</v>
+        <v>0.2674056793968462</v>
       </c>
       <c r="Q12">
-        <v>0.416264785083</v>
+        <v>2.52238583428225</v>
       </c>
       <c r="R12">
-        <v>1.665059140332</v>
+        <v>10.089543337129</v>
       </c>
       <c r="S12">
-        <v>0.009227055387463649</v>
+        <v>0.05105876342522214</v>
       </c>
       <c r="T12">
-        <v>0.004381784318526222</v>
+        <v>0.02702699551747622</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2.5402755</v>
+        <v>2.7186785</v>
       </c>
       <c r="H13">
-        <v>5.080551</v>
+        <v>5.437357</v>
       </c>
       <c r="I13">
-        <v>0.1154567969002575</v>
+        <v>0.1443137264130649</v>
       </c>
       <c r="J13">
-        <v>0.08005204898729699</v>
+        <v>0.1010711349827635</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -1240,28 +1240,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>0.010998</v>
+        <v>0.01005766666666667</v>
       </c>
       <c r="N13">
-        <v>0.032994</v>
+        <v>0.030173</v>
       </c>
       <c r="O13">
-        <v>0.005363749481003511</v>
+        <v>0.003835360785828855</v>
       </c>
       <c r="P13">
-        <v>0.005510546431623061</v>
+        <v>0.004348159414162149</v>
       </c>
       <c r="Q13">
-        <v>0.027937949949</v>
+        <v>0.02734356212683333</v>
       </c>
       <c r="R13">
-        <v>0.167627699694</v>
+        <v>0.164061372761</v>
       </c>
       <c r="S13">
-        <v>0.0006192813344520841</v>
+        <v>0.000553495207141503</v>
       </c>
       <c r="T13">
-        <v>0.0004411305328910639</v>
+        <v>0.0004394734070753562</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,22 +1278,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.315325</v>
+        <v>0.790022</v>
       </c>
       <c r="H14">
-        <v>0.945975</v>
+        <v>2.370066</v>
       </c>
       <c r="I14">
-        <v>0.01433167956883957</v>
+        <v>0.04193619023665445</v>
       </c>
       <c r="J14">
-        <v>0.01490531972629706</v>
+        <v>0.04405545940869034</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.875567333333333</v>
+        <v>1.684496</v>
       </c>
       <c r="N14">
-        <v>5.626702</v>
+        <v>5.053488</v>
       </c>
       <c r="O14">
-        <v>0.9147184316015461</v>
+        <v>0.6423607101334534</v>
       </c>
       <c r="P14">
-        <v>0.9397527619538806</v>
+        <v>0.7282461611889918</v>
       </c>
       <c r="Q14">
-        <v>0.5914132693833334</v>
+        <v>1.330788898912</v>
       </c>
       <c r="R14">
-        <v>5.32271942445</v>
+        <v>11.977100090208</v>
       </c>
       <c r="S14">
-        <v>0.01310945145742485</v>
+        <v>0.02693816094070895</v>
       </c>
       <c r="T14">
-        <v>0.01400731538059333</v>
+        <v>0.03208321919379618</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,22 +1340,22 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.315325</v>
+        <v>0.790022</v>
       </c>
       <c r="H15">
-        <v>0.945975</v>
+        <v>2.370066</v>
       </c>
       <c r="I15">
-        <v>0.01433167956883957</v>
+        <v>0.04193619023665445</v>
       </c>
       <c r="J15">
-        <v>0.01490531972629706</v>
+        <v>0.04405545940869034</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.163866</v>
+        <v>0.9277985</v>
       </c>
       <c r="N15">
-        <v>0.327732</v>
+        <v>1.855597</v>
       </c>
       <c r="O15">
-        <v>0.07991781891745056</v>
+        <v>0.3538039290807178</v>
       </c>
       <c r="P15">
-        <v>0.05473669161449624</v>
+        <v>0.2674056793968462</v>
       </c>
       <c r="Q15">
-        <v>0.05167104645000001</v>
+        <v>0.7329812265669999</v>
       </c>
       <c r="R15">
-        <v>0.3100262787</v>
+        <v>4.397887359402</v>
       </c>
       <c r="S15">
-        <v>0.001145356572565447</v>
+        <v>0.01483718887640478</v>
       </c>
       <c r="T15">
-        <v>0.00081586788927379</v>
+        <v>0.01178068005432102</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,22 +1402,22 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.315325</v>
+        <v>0.790022</v>
       </c>
       <c r="H16">
-        <v>0.945975</v>
+        <v>2.370066</v>
       </c>
       <c r="I16">
-        <v>0.01433167956883957</v>
+        <v>0.04193619023665445</v>
       </c>
       <c r="J16">
-        <v>0.01490531972629706</v>
+        <v>0.04405545940869034</v>
       </c>
       <c r="K16">
         <v>1</v>
@@ -1426,28 +1426,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>0.010998</v>
+        <v>0.01005766666666667</v>
       </c>
       <c r="N16">
-        <v>0.032994</v>
+        <v>0.030173</v>
       </c>
       <c r="O16">
-        <v>0.005363749481003511</v>
+        <v>0.003835360785828855</v>
       </c>
       <c r="P16">
-        <v>0.005510546431623061</v>
+        <v>0.004348159414162149</v>
       </c>
       <c r="Q16">
-        <v>0.00346794435</v>
+        <v>0.007945777935333333</v>
       </c>
       <c r="R16">
-        <v>0.03121149915</v>
+        <v>0.071512001418</v>
       </c>
       <c r="S16">
-        <v>7.687153884927185E-05</v>
+        <v>0.0001608404195407234</v>
       </c>
       <c r="T16">
-        <v>8.21364564299471E-05</v>
+        <v>0.0001915601605731353</v>
       </c>
     </row>
   </sheetData>
